--- a/Encuesta_Redes_Sociales.xlsx
+++ b/Encuesta_Redes_Sociales.xlsx
@@ -1,20 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gessure/Dropbox/UNIVERSIDADES/ENSH/ENSH/ENSH 2024-1/MATE 2°/TRATAMIENTO DE LA INFORMACIÓN/ESTADÍSTICA DESCRIPTIVA/ACTIVIDADES_R/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F84D8E-DB86-3345-AD72-258F9AD279F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="20520" windowHeight="20780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="31">
   <si>
     <t>Edad</t>
   </si>
@@ -87,12 +94,33 @@
   <si>
     <t>Muy poco</t>
   </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Uso de Facebook</t>
+  </si>
+  <si>
+    <t>Uso de Tiktok</t>
+  </si>
+  <si>
+    <t>Escala  satisfacción Facebook</t>
+  </si>
+  <si>
+    <t>Escala  satisfacción Tiktok</t>
+  </si>
+  <si>
+    <t>Persepcion de las Redes Sociales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,13 +183,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -199,7 +235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -233,6 +269,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -267,9 +304,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -442,14 +480,1799 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFFF780-BCC8-0741-98F6-72A2175B5DBE}">
+  <dimension ref="A1:K51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>43</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>38</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>56</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>54</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>44</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>53</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>54</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>4</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>39</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17">
+        <v>65</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>37</v>
+      </c>
+      <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>21</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>54</v>
+      </c>
+      <c r="G20" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>35</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23">
+        <v>55</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24">
+        <v>52</v>
+      </c>
+      <c r="G24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>29</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25">
+        <v>23</v>
+      </c>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <v>52</v>
+      </c>
+      <c r="G26" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>5</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>44</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28">
+        <v>40</v>
+      </c>
+      <c r="G28" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28">
+        <v>4</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29">
+        <v>67</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29">
+        <v>5</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30">
+        <v>5</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31">
+        <v>27</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32">
+        <v>26</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>5</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>24</v>
+      </c>
+      <c r="H33" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33">
+        <v>5</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34">
+        <v>36</v>
+      </c>
+      <c r="G34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="s">
+        <v>25</v>
+      </c>
+      <c r="I34">
+        <v>4</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>5</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>38</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36">
+        <v>67</v>
+      </c>
+      <c r="G36" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36">
+        <v>4</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>26</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37">
+        <v>31</v>
+      </c>
+      <c r="G37" t="s">
+        <v>24</v>
+      </c>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38">
+        <v>41</v>
+      </c>
+      <c r="G38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38">
+        <v>5</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+      <c r="K38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>41</v>
+      </c>
+      <c r="G39" t="s">
+        <v>24</v>
+      </c>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39">
+        <v>4</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40">
+        <v>65</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>5</v>
+      </c>
+      <c r="K40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>4</v>
+      </c>
+      <c r="K41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>31</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>57</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42">
+        <v>4</v>
+      </c>
+      <c r="J42">
+        <v>5</v>
+      </c>
+      <c r="K42">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>26</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43">
+        <v>57</v>
+      </c>
+      <c r="G43" t="s">
+        <v>24</v>
+      </c>
+      <c r="H43" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+      <c r="J43">
+        <v>4</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44">
+        <v>64</v>
+      </c>
+      <c r="G44" t="s">
+        <v>25</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>3</v>
+      </c>
+      <c r="K44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>19</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45">
+        <v>27</v>
+      </c>
+      <c r="G45" t="s">
+        <v>25</v>
+      </c>
+      <c r="H45" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+      <c r="E46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46">
+        <v>46</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+      <c r="H46" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47">
+        <v>46</v>
+      </c>
+      <c r="G47" t="s">
+        <v>25</v>
+      </c>
+      <c r="H47" t="s">
+        <v>25</v>
+      </c>
+      <c r="I47">
+        <v>4</v>
+      </c>
+      <c r="J47">
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H48" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49">
+        <v>40</v>
+      </c>
+      <c r="G49" t="s">
+        <v>24</v>
+      </c>
+      <c r="H49" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>5</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" t="s">
+        <v>25</v>
+      </c>
+      <c r="I51">
+        <v>4</v>
+      </c>
+      <c r="J51">
+        <v>4</v>
+      </c>
+      <c r="K51">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +2292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>56</v>
       </c>
@@ -489,7 +2312,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>46</v>
       </c>
@@ -509,7 +2332,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>32</v>
       </c>
@@ -529,7 +2352,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>25</v>
       </c>
@@ -549,7 +2372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>38</v>
       </c>
@@ -569,7 +2392,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>56</v>
       </c>
@@ -589,7 +2412,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>36</v>
       </c>
@@ -609,7 +2432,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>40</v>
       </c>
@@ -629,7 +2452,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>28</v>
       </c>
@@ -649,7 +2472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>28</v>
       </c>
@@ -669,7 +2492,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>41</v>
       </c>
@@ -689,7 +2512,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>53</v>
       </c>
@@ -709,7 +2532,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>57</v>
       </c>
@@ -729,7 +2552,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>41</v>
       </c>
@@ -749,7 +2572,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20</v>
       </c>
@@ -769,7 +2592,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>39</v>
       </c>
@@ -789,7 +2612,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>19</v>
       </c>
@@ -809,7 +2632,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>41</v>
       </c>
@@ -829,7 +2652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>47</v>
       </c>
@@ -849,7 +2672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>55</v>
       </c>
@@ -869,7 +2692,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -889,7 +2712,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>38</v>
       </c>
@@ -909,7 +2732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>50</v>
       </c>
@@ -929,7 +2752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29</v>
       </c>
@@ -949,7 +2772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>39</v>
       </c>
@@ -969,7 +2792,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>42</v>
       </c>
@@ -989,7 +2812,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>44</v>
       </c>
@@ -1009,7 +2832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>59</v>
       </c>
@@ -1029,7 +2852,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>45</v>
       </c>
@@ -1049,7 +2872,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>33</v>
       </c>
@@ -1069,7 +2892,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1089,7 +2912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20</v>
       </c>
@@ -1109,7 +2932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>54</v>
       </c>
@@ -1129,7 +2952,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>24</v>
       </c>
@@ -1149,7 +2972,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>38</v>
       </c>
@@ -1169,7 +2992,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>26</v>
       </c>
@@ -1189,7 +3012,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>56</v>
       </c>
@@ -1209,7 +3032,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>35</v>
       </c>
@@ -1229,7 +3052,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>21</v>
       </c>
@@ -1249,7 +3072,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>42</v>
       </c>
@@ -1269,7 +3092,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>31</v>
       </c>
@@ -1289,7 +3112,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>26</v>
       </c>
@@ -1309,7 +3132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1329,7 +3152,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>19</v>
       </c>
@@ -1349,7 +3172,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>37</v>
       </c>
@@ -1369,7 +3192,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1389,7 +3212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>24</v>
       </c>
@@ -1409,7 +3232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>25</v>
       </c>
@@ -1429,7 +3252,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>52</v>
       </c>
@@ -1449,7 +3272,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>31</v>
       </c>
